--- a/branches/dev2/StructureDefinition-form-settings.xlsx
+++ b/branches/dev2/StructureDefinition-form-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-13T16:23:46+00:00</t>
+    <t>2022-04-13T16:29:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/dev2/StructureDefinition-form-settings.xlsx
+++ b/branches/dev2/StructureDefinition-form-settings.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2554" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="123">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-13T16:29:46+00:00</t>
+    <t>2022-04-13T16:38:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -276,7 +276,7 @@
     <t>Extension.extension</t>
   </si>
   <si>
-    <t>10</t>
+    <t>9</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
@@ -374,52 +374,24 @@
 </t>
   </si>
   <si>
-    <t>sourceDataReview</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension.id</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension.url</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension.value[x]</t>
+    <t>requireDataReview</t>
+  </si>
+  <si>
+    <t>requireEditReason</t>
+  </si>
+  <si>
+    <t>createdAt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>updatedAt</t>
   </si>
   <si>
     <t>base64Binary
 booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
-  </si>
-  <si>
-    <t>requireDataReview</t>
-  </si>
-  <si>
-    <t>requireEditReason</t>
-  </si>
-  <si>
-    <t>createdAt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>updatedAt</t>
   </si>
 </sst>
 </file>
@@ -724,7 +696,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ80"/>
+  <dimension ref="A1:AJ71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -733,9 +705,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.69921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="23.3203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -743,7 +715,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.2578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="37.171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -5747,7 +5719,7 @@
         <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>88</v>
@@ -5925,14 +5897,14 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>73</v>
@@ -5947,14 +5919,12 @@
         <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>73</v>
@@ -6018,12 +5988,12 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6031,7 +6001,7 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>79</v>
@@ -6046,22 +6016,24 @@
         <v>73</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>73</v>
@@ -6103,10 +6075,10 @@
         <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -6118,23 +6090,23 @@
         <v>73</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>73</v>
@@ -6146,17 +6118,15 @@
         <v>73</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>73</v>
@@ -6193,41 +6163,43 @@
         <v>73</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="B55" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="C55" t="s" s="2">
         <v>73</v>
       </c>
@@ -6248,17 +6220,15 @@
         <v>73</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>73</v>
@@ -6307,27 +6277,27 @@
         <v>73</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>102</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -6350,13 +6320,13 @@
         <v>73</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -6407,7 +6377,7 @@
         <v>73</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>74</v>
@@ -6419,15 +6389,15 @@
         <v>73</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -6435,10 +6405,10 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>73</v>
@@ -6450,24 +6420,22 @@
         <v>73</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="R57" t="s" s="2">
         <v>73</v>
@@ -6497,39 +6465,39 @@
         <v>73</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AC57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>102</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -6537,7 +6505,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>79</v>
@@ -6552,22 +6520,24 @@
         <v>73</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>73</v>
@@ -6609,10 +6579,10 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -6621,7 +6591,7 @@
         <v>73</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>102</v>
@@ -6629,17 +6599,15 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>127</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>79</v>
@@ -6654,13 +6622,13 @@
         <v>73</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -6711,29 +6679,31 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B60" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="C60" t="s" s="2">
         <v>73</v>
       </c>
@@ -6754,13 +6724,13 @@
         <v>73</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -6811,27 +6781,27 @@
         <v>73</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -6842,7 +6812,7 @@
         <v>74</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>73</v>
@@ -6854,13 +6824,13 @@
         <v>73</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -6899,39 +6869,39 @@
         <v>73</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -6939,10 +6909,10 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>73</v>
@@ -6954,24 +6924,22 @@
         <v>73</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>73</v>
@@ -7001,39 +6969,39 @@
         <v>73</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>102</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7041,7 +7009,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>79</v>
@@ -7056,22 +7024,24 @@
         <v>73</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>73</v>
@@ -7113,10 +7083,10 @@
         <v>73</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -7125,7 +7095,7 @@
         <v>73</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>102</v>
@@ -7133,17 +7103,15 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>79</v>
@@ -7158,13 +7126,13 @@
         <v>73</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -7215,29 +7183,31 @@
         <v>73</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B65" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="C65" t="s" s="2">
         <v>73</v>
       </c>
@@ -7258,13 +7228,13 @@
         <v>73</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -7315,27 +7285,27 @@
         <v>73</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -7346,7 +7316,7 @@
         <v>74</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>73</v>
@@ -7358,13 +7328,13 @@
         <v>73</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -7403,39 +7373,39 @@
         <v>73</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -7443,10 +7413,10 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>73</v>
@@ -7458,24 +7428,22 @@
         <v>73</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="R67" t="s" s="2">
         <v>73</v>
@@ -7505,39 +7473,39 @@
         <v>73</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>102</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -7545,7 +7513,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>79</v>
@@ -7560,22 +7528,24 @@
         <v>73</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>73</v>
@@ -7617,10 +7587,10 @@
         <v>73</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -7629,7 +7599,7 @@
         <v>73</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>102</v>
@@ -7637,11 +7607,9 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
         <v>73</v>
       </c>
@@ -7662,13 +7630,13 @@
         <v>73</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -7719,27 +7687,27 @@
         <v>73</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>73</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -7747,7 +7715,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>79</v>
@@ -7762,22 +7730,24 @@
         <v>73</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>73</v>
@@ -7819,10 +7789,10 @@
         <v>73</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -7834,12 +7804,12 @@
         <v>73</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -7862,13 +7832,13 @@
         <v>73</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -7907,941 +7877,33 @@
         <v>73</v>
       </c>
       <c r="AA71" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AC71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AD71" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
         <v>102</v>
       </c>
     </row>

--- a/branches/dev2/StructureDefinition-form-settings.xlsx
+++ b/branches/dev2/StructureDefinition-form-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-13T16:38:03+00:00</t>
+    <t>2022-04-13T16:56:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
